--- a/model/Inputs/model_inputs_inelas_noPV_wBat.xlsx
+++ b/model/Inputs/model_inputs_inelas_noPV_wBat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDDA05C-B723-436A-85ED-EC8E722D27D3}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EFF3E5B-98CF-4A4F-8570-F1D81E7E9694}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1408,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+      <selection activeCell="G2" sqref="G2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2853,20 +2853,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2889,6 +2889,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95B8A76-94F3-412F-9855-4B93BB4C4C10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2903,12 +2911,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/model/Inputs/model_inputs_inelas_noPV_wBat.xlsx
+++ b/model/Inputs/model_inputs_inelas_noPV_wBat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EFF3E5B-98CF-4A4F-8570-F1D81E7E9694}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2C97A0-9076-471F-BBC8-9D58511DE222}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>min SoC</t>
   </si>
   <si>
-    <t>Interest rate</t>
-  </si>
-  <si>
     <t>Battery Eff</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Allow PV</t>
+  </si>
+  <si>
+    <t>DG annual capacity</t>
   </si>
 </sst>
 </file>
@@ -519,10 +519,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,15 +841,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.90625" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
@@ -865,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -894,7 +890,7 @@
         <v>0.02</v>
       </c>
       <c r="B2">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
         <v>0.99</v>
@@ -1015,15 +1011,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>635</v>
@@ -1034,7 +1030,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1070,27 +1066,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -1113,7 +1109,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1136,7 +1132,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1179,12 +1175,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0.80323299888517286</v>
@@ -1192,7 +1188,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0.7998018797075267</v>
@@ -1200,7 +1196,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0.79636610600256064</v>
@@ -1208,7 +1204,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0.79292564496168683</v>
@@ -1216,7 +1212,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0.78948046335616628</v>
@@ -1224,7 +1220,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0.78603052752928926</v>
@@ -1232,7 +1228,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0.78257580338835164</v>
@@ -1240,7 +1236,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0.77911625639644011</v>
@@ -1248,7 +1244,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0.77565185156400585</v>
@@ -1256,7 +1252,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0.77218255344024267</v>
@@ -1264,7 +1260,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0.76870832610423512</v>
@@ -1272,7 +1268,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0.76522913315588315</v>
@@ -1280,7 +1276,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>0.76174493770661011</v>
@@ -1288,7 +1284,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0.75825570236981887</v>
@@ -1296,7 +1292,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0.75476138925110314</v>
@@ -1327,12 +1323,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <f>(-0.2129*(0.3^3+0^3) +0.6056*(0.3^2+0^2) - 0.5538*(0.3+0) + 0.4067*2)/2</f>
@@ -1344,7 +1340,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <f>(-0.2129*(0.6^3+0.3^3) +0.6056*(0.6^2+0.3^2) - 0.5538*(0.6+0.3) + 0.4067*2)/2</f>
@@ -1356,7 +1352,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <f>(-0.2129*(1^3+0.6^3) +0.6056*(1^2+0.6^2) - 0.5538*(1+0.6) + 0.4067*2)/2</f>
@@ -1376,7 +1372,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1384,12 +1380,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>199</v>
@@ -1397,7 +1393,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>106</v>
@@ -1405,7 +1401,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -1507,7 +1503,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1584,7 +1580,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1661,7 +1657,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1831,7 +1827,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4">
         <v>0.52236078409734032</v>
@@ -1908,7 +1904,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>0.4532206627457997</v>
@@ -1985,7 +1981,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>0.38408054139425912</v>
@@ -2270,7 +2266,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4">
         <v>0.3415913978494623</v>
@@ -2347,7 +2343,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>0.21991235409714491</v>
@@ -2424,7 +2420,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>9.8233310344827587E-2</v>
@@ -2600,6 +2596,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D835CF4C7D56B243BA013D4D2E10914B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e645ef68b9493f2ee8bae9e534bc24f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d4e152b-60f6-4719-8921-68b5b8011cde" xmlns:ns4="28683373-984a-4841-9f0e-018f3f7bab1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a06da6e71fc3d3bdf7cbe176c2a8afa1" ns3:_="" ns4:_="">
     <xsd:import namespace="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
@@ -2852,15 +2857,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2870,6 +2866,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE4FBA5-6C26-4B97-9218-92B658F853C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2884,14 +2888,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
